--- a/document/数据库/数据/t_papent.xlsx
+++ b/document/数据库/数据/t_papent.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="140">
   <si>
     <t>applier</t>
   </si>
@@ -31,559 +31,563 @@
   </si>
   <si>
     <t>201010110545.X</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201010240908.1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201110294120.3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201310376205.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201310581204.4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201310576885.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201410023154.2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201410056779.9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201410056869.8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201410240265.9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201410333944.0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201410374744.X</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201410381942.9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201510107472.1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201510119340.0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201510148727.9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201510170488.7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201510170817.8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201510176839.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201510219969.2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201510333581.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201510347630.0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201510362467.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201510292115.7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201510381534.8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201510420047.8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201510456810.2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201510629665.3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201510707442.4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201510711744.9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201610069905.3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201610130273.7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201610202057.9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201610202059.8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201610202853.2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201710048160.7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201710050255.2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201710052203.9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201710121236.4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201710121268.4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201710197496.X</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201710269270.6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201710279321.3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201710296409.6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201710301082.7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201710303017.8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201710324102.2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201710323674.9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201710465828.8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201710543518.3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201710607870.9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201710619371.1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201710832260.9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201710833313.9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201710835366.4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201710840570.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201710913633.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201710942962.2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201710984718.2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201710984746.4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201710987829.9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>201711063930.1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>北京理工大学</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>北京理工大学
 公安部第三研究所</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>首都师范大学
 北京理工大学</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>首都师范大学
 北京理工大学</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>北京理工大学</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>北京理工大学</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中国电子科技集团公司第十五研究所</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中国人民解放军91655部队</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>北京理工大学
 中国人民解放军装备学院</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>北京理工大学
 公安部第三研究所</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种结合指针分析的软件安全漏洞动态检测方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种基于GCC抽象语法树的缓冲区溢出漏洞检测方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>由信誉评估上升到信任管理的跨域访问控制策略生成方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>基于语义扩展的海量短文本信息过滤方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种基于投影估计的多能谱CT图像重建方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种双能谱CT图像迭代重建方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种基于复杂网络的脏数据传播路径发现方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种基于网络Motif的软件稳定性评估方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种基于情感分析和隐马尔科夫模型融合的股市预测方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种软件缺陷预测方法和软件缺陷预测系统</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种网络协议模糊测试方法和装置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>基于系统调用分析的软件行为评估方法和装置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种有状态协议的规则化状态机模型设计方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>面向网络态势感知的多级别网络系统及其构建方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>基于Netflow的自治系统级流量采集系统及方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种分布式无线传感网络节点复制攻击检测方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种基于WIFI信号强度的室内定位方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种基于JCUDASA_BP算法的软件缺陷预测方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种基于调表的跨站脚本攻击防御方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种基于函数调用的缓冲区溢出漏洞动态检测方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种基于系统调用短序列的软件漏洞检测方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种有状态网络协议的模糊测试系统</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种针对虚函数表劫持攻击的防御方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种面向安全检查的代码静态分析方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种基于Redis的对象智能检索方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种基于网络行为分析的Hadoop恶意节点检测系统</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种发现大型面向对象软件系统关键测试函数的方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>基于有限状态机网络协议半合法化模糊测试用例生成方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>软件安全缺陷发现系统</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种基于系统调用的软件行为评估方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种基于代码替换和正则表达式的静态分析工具改进方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种基于测试工作量的软件安全缺陷发现模型的建模方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>基于粒子群优化算法的Android自动化测试方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种基于复杂网络的软件缺陷评估模型的构建方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种基于符号执行的数组越界检测方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种基于图的个性化推荐方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>基于虚函数表劫持的防御方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种基于增强学习的动态保护路径规划方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>基于攻击图的网络安全态势的量化评估方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>支持漏洞关联性挖掘的漏洞自动分类方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种系统漏洞防护方法和装置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种软件漏洞的防护方法和装置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种基于交叉熵联合马氏距离的网络异常流量检测方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种基于加权LDA主题模型的金融舆情感知方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种软件系统演化的分析方法和装置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种蠕虫同源性分析方法和装置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种内部网络的安全度量方法和装置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种基于半监督学习的恶意代码分析方法和系统</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>基于多特征融合的安卓恶意应用程序检测方法和系统</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种利用属性基加密实施核心角色访问控制模型的方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种医学图像分割方法和装置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种检测隐私数据泄露的方法和装置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种文件转换方法和装置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种内核驱动的监视方法和装置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种基于TOPSIS的多维网络安全度量方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种基于AHP与灰色关联的多维网络安全评估方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种基于图像特征描述子的恶意样本同源检测方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种基于攻防对抗效用的网络安全评估方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种基于属性基加密的云存储访问控制方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种基于序列比对算法的勒索软件变种检测方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种基于复杂加权软件网络的软件缺陷预测方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种基于木马特征的木马分类方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种动静态特征结合的僵尸程序检测与分类方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一种基于组件依赖图的软件安全漏洞预测方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,13 +601,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -931,731 +928,926 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1"/>
-    <col min="2" max="2" width="55.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" customWidth="1"/>
+    <col min="3" max="3" width="55.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>69</v>
+    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>201310750367</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>69</v>
+    <row r="9" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>201310750657.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>69</v>
+    <row r="11" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>69</v>
+    <row r="12" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>69</v>
+    <row r="14" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>69</v>
+    <row r="17" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>69</v>
+    <row r="21" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>69</v>
+    <row r="23" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>69</v>
+    <row r="29" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>69</v>
+    <row r="35" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>69</v>
+    <row r="36" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>69</v>
+    <row r="37" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>69</v>
+    <row r="40" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>69</v>
+    <row r="41" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>69</v>
+    <row r="42" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>69</v>
+    <row r="43" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>69</v>
+    <row r="45" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>69</v>
+    <row r="46" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>69</v>
+    <row r="47" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>69</v>
+    <row r="48" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>69</v>
+    <row r="49" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>69</v>
+    <row r="50" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>69</v>
+    <row r="52" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>69</v>
+    <row r="53" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>69</v>
+    <row r="54" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>69</v>
+    <row r="56" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>69</v>
+    <row r="57" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>69</v>
+    <row r="58" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>69</v>
+    <row r="59" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>69</v>
+    <row r="60" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>69</v>
+    <row r="62" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>69</v>
+    <row r="63" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>69</v>
+    <row r="64" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>69</v>
+    <row r="65" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>64</v>
       </c>
     </row>
